--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="data" state="visible" r:id="rId4"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Mood</t>
   </si>
@@ -25,130 +26,800 @@
     <t>Timestamp</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>[object Object]</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 7:04:01</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 7:04:04</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 7:04:05</t>
+  </si>
+  <si>
+    <t>샐러드</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 7:04:19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 7:28:59</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:12:13</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:12:14</t>
+  </si>
+  <si>
     <t>neutral</t>
   </si>
   <si>
-    <t>[object Object]</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:00:17</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:17:58</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:32:53</t>
-  </si>
-  <si>
-    <t>["그릭요거트","딸기"]</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:33:03</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:36:37</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:38:03</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:41:33</t>
-  </si>
-  <si>
-    <t>["감자탕","흰쌀밥"]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:44:17</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:52:02</t>
+    <t>2023. 12. 13. 오후 8:12:32</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:24:31</t>
   </si>
   <si>
     <t>계란말이, 김치찌게</t>
   </si>
   <si>
-    <t>2023. 12. 13. 오후 1:52:28</t>
+    <t>2023. 12. 13. 오후 8:28:56</t>
   </si>
   <si>
     <t>식빵, 사과, 딸기잼</t>
   </si>
   <si>
-    <t>2023. 12. 13. 오후 1:58:27</t>
+    <t>2023. 12. 13. 오후 8:29:09</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:29:12</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:29:16</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:29:56</t>
   </si>
   <si>
     <t>우유</t>
   </si>
   <si>
-    <t>2023. 12. 13. 오후 1:58:32</t>
+    <t>2023. 12. 13. 오후 8:30:08</t>
   </si>
   <si>
     <t>초콜릿</t>
   </si>
   <si>
-    <t>2023. 12. 13. 오후 1:58:38</t>
-  </si>
-  <si>
-    <t>2023. 12. 13. 오후 1:58:41</t>
+    <t>2023. 12. 13. 오후 8:30:31</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:30:40</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:30:42</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:30:48</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:32:06</t>
+  </si>
+  <si>
+    <t>바나나</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:32:23</t>
+  </si>
+  <si>
+    <t>고등어구이, 흰 쌀밥</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:32:35</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:04</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:06</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:12</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:16</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:19</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:21</t>
+  </si>
+  <si>
+    <t>떡볶이, 순대</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:33:34</t>
+  </si>
+  <si/>
+  <si>
+    <t>2023. 12. 13. 오후 8:47:39</t>
+  </si>
+  <si>
+    <t>양념치킨</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:47:49</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 8:49:41</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 9:50:24</t>
+  </si>
+  <si>
+    <t>2023. 12. 13. 오후 9:50:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -473,173 +1144,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.500000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C17" s="0" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>